--- a/data/default_configuration/DailyReportFolder/2025.12.02_DailyReport.xlsx
+++ b/data/default_configuration/DailyReportFolder/2025.12.02_DailyReport.xlsx
@@ -230,7 +230,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11"/>
     <row r="12">
       <c r="B12" t="s" s="1">
         <v>1</v>
